--- a/public/traval-excel.xlsx
+++ b/public/traval-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amrra\Documents\1hackerd3sd3s\GitHub\hth2024-Reel-It-Back\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F14629A-F964-4F86-BEFE-8274144EB9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F631C7C-7900-460F-920E-E20C35C2E8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA5200E1-F555-491C-8AB8-5B2F60576645}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Travel</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Address</t>
+  </si>
+  <si>
+    <t>499 Bd Labrosse #100, Gatineau, QC J8P 4R1</t>
   </si>
 </sst>
 </file>
@@ -505,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541779B2-D93B-4048-AF4C-CA269B4B6B1D}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,6 +648,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{F14DF1B4-DFB0-428D-84FF-A90DCDB7A98A}"/>
@@ -659,6 +667,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f75286c7-4f94-4a95-8cae-3d4a629f7b2f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D493A53C4C44E4983512D5C8947F878" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4428fd8a30f3bae8b6902036affa048b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f75286c7-4f94-4a95-8cae-3d4a629f7b2f" xmlns:ns4="34fe315a-d9e8-424e-8969-7ab21fdb23f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42b0e9ae931e19ef769af2c8a7bb057f" ns3:_="" ns4:_="">
     <xsd:import namespace="f75286c7-4f94-4a95-8cae-3d4a629f7b2f"/>
@@ -899,24 +924,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f75286c7-4f94-4a95-8cae-3d4a629f7b2f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{894BB14D-090B-4C19-892F-18C3AC07DEA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{099DDD03-A50F-4267-B30A-C1C1A9FF5D65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="f75286c7-4f94-4a95-8cae-3d4a629f7b2f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="34fe315a-d9e8-424e-8969-7ab21fdb23f4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7187619-0532-4DF2-8F7F-F93DFB592476}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -933,29 +966,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{099DDD03-A50F-4267-B30A-C1C1A9FF5D65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="f75286c7-4f94-4a95-8cae-3d4a629f7b2f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="34fe315a-d9e8-424e-8969-7ab21fdb23f4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{894BB14D-090B-4C19-892F-18C3AC07DEA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>